--- a/paper_plots/homography.xlsx
+++ b/paper_plots/homography.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40480" yWindow="1420" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14980" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="homography" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -436,7 +439,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,10 +489,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>2.4900000000000002</v>
+        <v>1.65</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D3">
         <v>0.96599999999999997</v>
@@ -520,24 +523,24 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>87</v>
+        <v>90.37</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8</v>
+        <v>13.5</v>
       </c>
       <c r="D4">
-        <v>0.72499999999999998</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="E4">
-        <v>0.69499999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:G21" si="0">100*(1-D4)</f>
-        <v>27.500000000000004</v>
+        <v>29.200000000000003</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>30.500000000000004</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1">
         <v>21.84</v>
@@ -554,16 +557,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="C5" s="1">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="D5">
         <v>0.98399999999999999</v>
       </c>
       <c r="E5">
-        <v>0.97399999999999998</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
@@ -571,7 +574,7 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>2.6000000000000023</v>
+        <v>5.2000000000000046</v>
       </c>
       <c r="H5" s="1">
         <v>11.92</v>
@@ -588,10 +591,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>3.05</v>
+        <v>3.37</v>
       </c>
       <c r="C6" s="1">
-        <v>2.19</v>
+        <v>2.37</v>
       </c>
       <c r="D6">
         <v>0.93899999999999995</v>
@@ -622,10 +625,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>5.58</v>
+        <v>6.08</v>
       </c>
       <c r="C7" s="1">
-        <v>4.62</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="D7">
         <v>0.878</v>
@@ -656,10 +659,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>5.95</v>
+        <v>6.14</v>
       </c>
       <c r="C8" s="1">
-        <v>3.33</v>
+        <v>3.53</v>
       </c>
       <c r="D8">
         <v>0.98399999999999999</v>
@@ -690,10 +693,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>21.4</v>
+        <v>22.55</v>
       </c>
       <c r="C9" s="1">
-        <v>7.47</v>
+        <v>7.86</v>
       </c>
       <c r="D9">
         <v>0.86099999999999999</v>
@@ -724,24 +727,24 @@
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>76.8</v>
+        <v>81.41</v>
       </c>
       <c r="C10" s="1">
-        <v>6.39</v>
+        <v>0.93</v>
       </c>
       <c r="D10">
-        <v>0.84499999999999997</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="E10">
-        <v>0.81699999999999995</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>15.500000000000004</v>
+        <v>15.100000000000001</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>18.300000000000004</v>
+        <v>17.600000000000005</v>
       </c>
       <c r="H10" s="1">
         <v>24.04</v>
@@ -758,10 +761,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>10.65</v>
+        <v>11.3</v>
       </c>
       <c r="C11" s="1">
-        <v>5.41</v>
+        <v>5.7</v>
       </c>
       <c r="D11">
         <v>0.96499999999999997</v>
@@ -792,10 +795,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>3.75</v>
+        <v>4.03</v>
       </c>
       <c r="C12" s="1">
-        <v>2.41</v>
+        <v>2.66</v>
       </c>
       <c r="D12">
         <v>0.97599999999999998</v>
@@ -826,20 +829,20 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>4.62</v>
+        <v>4.83</v>
       </c>
       <c r="C13" s="1">
-        <v>2.73</v>
+        <v>2.98</v>
       </c>
       <c r="D13">
-        <v>0.90400000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="E13">
         <v>0.89</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>9.5999999999999979</v>
+        <v>8.1999999999999957</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -860,10 +863,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>10.62</v>
+        <v>11.34</v>
       </c>
       <c r="C14" s="1">
-        <v>4.6100000000000003</v>
+        <v>4.88</v>
       </c>
       <c r="D14">
         <v>0.81899999999999995</v>
@@ -894,10 +897,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>9.0500000000000007</v>
+        <v>9.51</v>
       </c>
       <c r="C15" s="1">
-        <v>2.54</v>
+        <v>2.73</v>
       </c>
       <c r="D15">
         <v>0.95699999999999996</v>
@@ -928,10 +931,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>12.73</v>
+        <v>13.05</v>
       </c>
       <c r="C16" s="1">
-        <v>5.87</v>
+        <v>6.21</v>
       </c>
       <c r="D16">
         <v>0.98799999999999999</v>
@@ -962,10 +965,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="1">
-        <v>15.24</v>
+        <v>15.6</v>
       </c>
       <c r="C17" s="1">
-        <v>5.65</v>
+        <v>6.07</v>
       </c>
       <c r="D17">
         <v>0.98299999999999998</v>
@@ -996,10 +999,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>2.73</v>
+        <v>2.93</v>
       </c>
       <c r="C18" s="1">
-        <v>3.17</v>
+        <v>3.38</v>
       </c>
       <c r="D18">
         <v>0.71799999999999997</v>
@@ -1030,10 +1033,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>7.75</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="C19" s="1">
-        <v>3.66</v>
+        <v>4.03</v>
       </c>
       <c r="D19">
         <v>0.996</v>
@@ -1064,24 +1067,24 @@
         <v>25</v>
       </c>
       <c r="B20" s="1">
-        <v>184.65</v>
+        <v>229.62</v>
       </c>
       <c r="C20" s="1">
-        <v>16.440000000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D20">
-        <v>0.93300000000000005</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="E20">
-        <v>0.91100000000000003</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>6.6999999999999948</v>
+        <v>7.5999999999999961</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>8.8999999999999968</v>
+        <v>11.2</v>
       </c>
       <c r="H20" s="1">
         <v>33.130000000000003</v>
@@ -1098,10 +1101,10 @@
         <v>26</v>
       </c>
       <c r="B21" s="1">
-        <v>0.94</v>
+        <v>1.03</v>
       </c>
       <c r="C21" s="1">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="D21">
         <v>0.99099999999999999</v>
@@ -1133,27 +1136,27 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ref="B22:J22" si="1">AVERAGE(B3:B21)</f>
-        <v>24.565789473684212</v>
+        <v>27.629473684210527</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>4.8942105263157893</v>
+        <v>4.9263157894736835</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>0.91642105263157914</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>0.90721052631578958</v>
+        <v>0.90105263157894744</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>8.3578947368421055</v>
+        <v>8.4000000000000021</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>9.2789473684210524</v>
+        <v>9.8947368421052655</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
@@ -1174,27 +1177,27 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ref="B23:J23" si="2">STDEV(B3:B21)</f>
-        <v>45.610713935773852</v>
+        <v>55.021937995845924</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="2"/>
-        <v>3.7733352705964909</v>
+        <v>4.1436674718127495</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="2"/>
-        <v>8.7143123518773347E-2</v>
+        <v>8.8994381845147963E-2</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="2"/>
-        <v>9.0755825614893385E-2</v>
+        <v>0.10037124072617735</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>8.714312351877334</v>
+        <v>8.8994381845147927</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="2"/>
-        <v>9.0755825614893357</v>
+        <v>10.037124072617754</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
@@ -1215,11 +1218,11 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ref="B24:J24" si="3">MEDIAN(B3:B21)</f>
-        <v>7.75</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="3"/>
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="3"/>
@@ -1227,7 +1230,7 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" si="3"/>
-        <v>0.95299999999999996</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="3"/>
@@ -1235,7 +1238,7 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>4.7000000000000046</v>
+        <v>5.2000000000000046</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="3"/>
